--- a/data/trans_dic/P23_2_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P23_2_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o mucha menos ayuda de la que desea en asuntos relacionados con su casa</t>
+          <t>Población que recibe menos o mucha menos ayuda de la que desea en asuntos relacionados con su casa (tasa de respuesta: 98,49%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19,66%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>15,86%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,65%</t>
+          <t>15,24%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>22,29%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>24,36%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>26,11%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>25,89%</t>
+          <t>26,81%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>25,61%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>25,99%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>22,12%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>30,8%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>27,01%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>23,05%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>30,59%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>22,48%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
         <is>
           <t>21,19%</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>18,89%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>26,75%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
         <is>
           <t>25,72%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>28,75%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,1; 24,47</t>
+          <t>15,86; 23,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,11; 19,58</t>
+          <t>12,8; 19,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,58; 19,75</t>
+          <t>12,38; 19,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,05; 27,8</t>
+          <t>17,85; 26,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,9; 29,83</t>
+          <t>21,5; 28,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,13; 29,18</t>
+          <t>23,63; 30,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,85; 24,58</t>
+          <t>22,51; 28,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,81; 30,52</t>
+          <t>22,79; 28,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,54; 25,89</t>
+          <t>19,38; 24,91</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19,2; 23,52</t>
+          <t>26,79; 34,99</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,91; 21,3</t>
+          <t>23,91; 30,69</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>23,48; 28,01</t>
+          <t>27,31; 33,71</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>20,12; 25,09</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>19,25; 23,79</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>16,79; 21,03</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>24,13; 29,83</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>23,47; 28,29</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>26,42; 31,34</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>17,09%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,96%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,2%</t>
+          <t>16,07%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>22,56%</t>
+          <t>25,48%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>25,63%</t>
+          <t>22,55%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>28,49%</t>
+          <t>28,96%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>23,23%</t>
+          <t>25,81%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>23,75%</t>
+          <t>28,24%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>21,41%</t>
+          <t>23,67%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>23,27%</t>
+          <t>33,28%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>19,74%</t>
+          <t>23,74%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>23,13%</t>
+          <t>27,03%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>21,53%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>23,2%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>19,89%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>29,4%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>23,12%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>28,02%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,7; 22,27</t>
+          <t>13,74; 23,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,27; 22,24</t>
+          <t>14,53; 22,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,13; 20,53</t>
+          <t>12,9; 20,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,28; 28,74</t>
+          <t>21,11; 30,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,65; 30,17</t>
+          <t>17,06; 28,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,68; 32,4</t>
+          <t>23,0; 35,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,06; 27,27</t>
+          <t>22,37; 30,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,36; 29,96</t>
+          <t>24,64; 31,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,49; 24,83</t>
+          <t>20,29; 27,62</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20,63; 26,26</t>
+          <t>28,93; 38,31</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,19; 22,59</t>
+          <t>18,58; 30,35</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>19,0; 27,22</t>
+          <t>21,53; 34,89</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>18,76; 24,78</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>20,47; 26,23</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>17,48; 22,93</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>26,32; 32,98</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>18,98; 27,38</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>23,88; 32,58</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>24,27%</t>
+          <t>23,37%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,49%</t>
+          <t>22,47%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>18,9%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>37,11%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>26,62%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>21,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>21,26%</t>
+          <t>26,74%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>21,73%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>21,57%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>28,71%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>25,43%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>22,1%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>20,33%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>25,02%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>22,11%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>20,24%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>32,95%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,02; 35,01</t>
+          <t>16,11; 32,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,36; 31,52</t>
+          <t>16,22; 30,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,9; 30,99</t>
+          <t>12,03; 32,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>26,8; 52,5</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>19,68; 34,38</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,95; 28,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,69; 28,15</t>
+          <t>19,27; 34,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>15,94; 28,1</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>15,75; 28,17</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>20,73; 37,53</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>19,66; 31,72</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>17,88; 27,52</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>16,0; 27,24</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>20,16; 30,78</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>17,99; 27,11</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>15,83; 27,09</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>26,35; 42,35</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,19%</t>
+          <t>18,81%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>17,55%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>16,02%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>25,4%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>23,93%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>25,98%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>27,32%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>22,26%</t>
+          <t>25,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>26,37%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>22,64%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>31,52%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>26,31%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>22,68%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>22,11%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>19,39%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>29,81%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>22,41%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>22,08%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>19,44%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>28,53%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>25,13%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>28,58%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,55; 22,32</t>
+          <t>16,25; 21,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,23; 20,16</t>
+          <t>15,21; 20,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,92; 19,11</t>
+          <t>13,74; 18,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,23; 27,28</t>
+          <t>22,5; 28,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,58; 28,59</t>
+          <t>20,97; 27,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,58; 28,77</t>
+          <t>24,08; 30,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,1; 24,52</t>
+          <t>23,52; 28,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,5; 29,25</t>
+          <t>24,36; 28,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,84; 24,73</t>
+          <t>20,75; 24,77</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,6; 23,88</t>
+          <t>28,76; 34,72</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,73; 21,25</t>
+          <t>23,71; 29,35</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>23,28; 27,54</t>
+          <t>27,18; 33,06</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>20,63; 24,33</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>20,37; 23,7</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>17,8; 21,2</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>26,48; 30,79</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>22,67; 27,2</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>26,68; 30,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe menos o mucha menos ayuda de la que desea en asuntos relacionados con su casa (tasa de respuesta: 98,49%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>324.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>306.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>305.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>395.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>459.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>305646</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>248869</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>241669</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>355374</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>54243</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>59214</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>455551</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>453683</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>395723</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>539787</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>62824</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>70866</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>761197</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>702553</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>637392</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>895161</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>117067</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>130080</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>254888; 374258</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>200928; 302991</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>196383; 304548</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>284552; 416548</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>47874; 62558</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>52189; 67721</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>400324; 515643</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>397802; 503397</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>346678; 445614</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>469410; 613217</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>55603; 71364</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>63262; 78093</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>681267; 849467</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>638038; 788593</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>566525; 709651</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>807495; 998394</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>106858; 128796</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>119538; 141835</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>271.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>271.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>229930</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>234648</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>212210</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>344406</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>15761</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>19930</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>353499</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>371855</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>315349</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>455930</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>15176</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>17608</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>583429</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>606503</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>527559</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>800336</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>30937</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>37538</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>184140; 309041</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>188616; 292004</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>170437; 270564</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>285369; 410773</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>11925; 19788</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>15828; 24147</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>306360; 415295</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>324411; 418292</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>270248; 367918</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>396394; 524951</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>11874; 19398</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>14027; 22729</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>508428; 671427</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>535133; 685778</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>463743; 608332</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>716419; 897802</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>25402; 36644</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>31990; 43649</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>95887</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>89886</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>77274</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>153592</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>105053</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>83891</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>88037</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>116310</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>200941</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>173778</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>165311</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>269902</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>66089; 134456</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>64861; 122351</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>49168; 130975</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>110934; 217336</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>75711; 133627</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>61528; 108497</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>64268; 114954</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>83964; 152012</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>161883; 247206</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>141377; 213121</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>129335; 221264</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>215779; 346875</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>210.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>255.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>352.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>438.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>397.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>383.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>293.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>339.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>562.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>664.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>606.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>645.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>511.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>594.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>631463</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>573404</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>531153</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>853371</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>70004</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>79144</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>914104</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>909430</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>799109</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1112027</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>78000</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>88474</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1545567</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1482833</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1330262</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1965398</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>148004</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>167618</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>545710; 734856</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>497030; 656324</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>455425; 628308</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>756014; 964592</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>61339; 79697</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>69761; 87819</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>832849; 1012384</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>840049; 986927</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>732344; 874103</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1014683; 1224707</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>70292; 87029</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>80688; 98141</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1423364; 1678669</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1367943; 1591538</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1218601; 1450967</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1823719; 2120455</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>133553; 160197</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>156455; 180091</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
